--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nid2-Col13a1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nid2-Col13a1.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.78586466666667</v>
+        <v>5.416159</v>
       </c>
       <c r="H2">
-        <v>62.357594</v>
+        <v>16.248477</v>
       </c>
       <c r="I2">
-        <v>0.2285824153201347</v>
+        <v>0.07167636930710344</v>
       </c>
       <c r="J2">
-        <v>0.2285824153201347</v>
+        <v>0.07167636930710343</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1042226666666667</v>
+        <v>0.1837056666666667</v>
       </c>
       <c r="N2">
-        <v>0.312668</v>
+        <v>0.5511170000000001</v>
       </c>
       <c r="O2">
-        <v>0.6017220210075787</v>
+        <v>0.7269991860920679</v>
       </c>
       <c r="P2">
-        <v>0.6017220210075785</v>
+        <v>0.7269991860920678</v>
       </c>
       <c r="Q2">
-        <v>2.166358244532444</v>
+        <v>0.9949790998676669</v>
       </c>
       <c r="R2">
-        <v>19.497224200792</v>
+        <v>8.954811898809002</v>
       </c>
       <c r="S2">
-        <v>0.1375430729132252</v>
+        <v>0.05210866214829868</v>
       </c>
       <c r="T2">
-        <v>0.1375430729132251</v>
+        <v>0.05210866214829867</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.78586466666667</v>
+        <v>5.416159</v>
       </c>
       <c r="H3">
-        <v>62.357594</v>
+        <v>16.248477</v>
       </c>
       <c r="I3">
-        <v>0.2285824153201347</v>
+        <v>0.07167636930710344</v>
       </c>
       <c r="J3">
-        <v>0.2285824153201347</v>
+        <v>0.07167636930710343</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.192158</v>
       </c>
       <c r="O3">
-        <v>0.3698034340347406</v>
+        <v>0.2534828531892131</v>
       </c>
       <c r="P3">
-        <v>0.3698034340347406</v>
+        <v>0.2534828531892131</v>
       </c>
       <c r="Q3">
-        <v>1.331390060872444</v>
+        <v>0.3469194270406666</v>
       </c>
       <c r="R3">
-        <v>11.982510547852</v>
+        <v>3.122274843366</v>
       </c>
       <c r="S3">
-        <v>0.08453056214534112</v>
+        <v>0.01816873059820832</v>
       </c>
       <c r="T3">
-        <v>0.0845305621453411</v>
+        <v>0.01816873059820832</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.78586466666667</v>
+        <v>5.416159</v>
       </c>
       <c r="H4">
-        <v>62.357594</v>
+        <v>16.248477</v>
       </c>
       <c r="I4">
-        <v>0.2285824153201347</v>
+        <v>0.07167636930710344</v>
       </c>
       <c r="J4">
-        <v>0.2285824153201347</v>
+        <v>0.07167636930710343</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,22 +682,22 @@
         <v>0.014796</v>
       </c>
       <c r="O4">
-        <v>0.02847454495768078</v>
+        <v>0.01951796071871896</v>
       </c>
       <c r="P4">
-        <v>0.02847454495768078</v>
+        <v>0.01951796071871896</v>
       </c>
       <c r="Q4">
-        <v>0.102515884536</v>
+        <v>0.026712496188</v>
       </c>
       <c r="R4">
-        <v>0.922642960824</v>
+        <v>0.240412465692</v>
       </c>
       <c r="S4">
-        <v>0.006508780261568435</v>
+        <v>0.001398976560596438</v>
       </c>
       <c r="T4">
-        <v>0.006508780261568434</v>
+        <v>0.001398976560596438</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>61.15258266666667</v>
+        <v>61.15258266666666</v>
       </c>
       <c r="H5">
         <v>183.457748</v>
       </c>
       <c r="I5">
-        <v>0.6724957211632093</v>
+        <v>0.809281097415931</v>
       </c>
       <c r="J5">
-        <v>0.6724957211632092</v>
+        <v>0.8092810974159309</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1042226666666667</v>
+        <v>0.1837056666666667</v>
       </c>
       <c r="N5">
-        <v>0.312668</v>
+        <v>0.5511170000000001</v>
       </c>
       <c r="O5">
-        <v>0.6017220210075787</v>
+        <v>0.7269991860920679</v>
       </c>
       <c r="P5">
-        <v>0.6017220210075785</v>
+        <v>0.7269991860920678</v>
       </c>
       <c r="Q5">
-        <v>6.373485239073778</v>
+        <v>11.23407596716844</v>
       </c>
       <c r="R5">
-        <v>57.36136715166401</v>
+        <v>101.106683704516</v>
       </c>
       <c r="S5">
-        <v>0.4046554844572754</v>
+        <v>0.5883466991410774</v>
       </c>
       <c r="T5">
-        <v>0.4046554844572753</v>
+        <v>0.5883466991410772</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>61.15258266666667</v>
+        <v>61.15258266666666</v>
       </c>
       <c r="H6">
         <v>183.457748</v>
       </c>
       <c r="I6">
-        <v>0.6724957211632093</v>
+        <v>0.809281097415931</v>
       </c>
       <c r="J6">
-        <v>0.6724957211632092</v>
+        <v>0.8092810974159309</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.192158</v>
       </c>
       <c r="O6">
-        <v>0.3698034340347406</v>
+        <v>0.2534828531892131</v>
       </c>
       <c r="P6">
-        <v>0.3698034340347406</v>
+        <v>0.2534828531892131</v>
       </c>
       <c r="Q6">
         <v>3.916985993353777</v>
@@ -818,10 +818,10 @@
         <v>35.252873940184</v>
       </c>
       <c r="S6">
-        <v>0.2486912270598242</v>
+        <v>0.2051388816050877</v>
       </c>
       <c r="T6">
-        <v>0.2486912270598241</v>
+        <v>0.2051388816050877</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>61.15258266666667</v>
+        <v>61.15258266666666</v>
       </c>
       <c r="H7">
         <v>183.457748</v>
       </c>
       <c r="I7">
-        <v>0.6724957211632093</v>
+        <v>0.809281097415931</v>
       </c>
       <c r="J7">
-        <v>0.6724957211632092</v>
+        <v>0.8092810974159309</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,10 +868,10 @@
         <v>0.014796</v>
       </c>
       <c r="O7">
-        <v>0.02847454495768078</v>
+        <v>0.01951796071871896</v>
       </c>
       <c r="P7">
-        <v>0.02847454495768078</v>
+        <v>0.01951796071871896</v>
       </c>
       <c r="Q7">
         <v>0.301604537712</v>
@@ -880,10 +880,10 @@
         <v>2.714440839408</v>
       </c>
       <c r="S7">
-        <v>0.01914900964610976</v>
+        <v>0.01579551666976591</v>
       </c>
       <c r="T7">
-        <v>0.01914900964610976</v>
+        <v>0.01579551666976591</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>26.986019</v>
       </c>
       <c r="I8">
-        <v>0.09892186351665599</v>
+        <v>0.1190425332769656</v>
       </c>
       <c r="J8">
-        <v>0.09892186351665597</v>
+        <v>0.1190425332769656</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1042226666666667</v>
+        <v>0.1837056666666667</v>
       </c>
       <c r="N8">
-        <v>0.312668</v>
+        <v>0.5511170000000001</v>
       </c>
       <c r="O8">
-        <v>0.6017220210075787</v>
+        <v>0.7269991860920679</v>
       </c>
       <c r="P8">
-        <v>0.6017220210075785</v>
+        <v>0.7269991860920678</v>
       </c>
       <c r="Q8">
-        <v>0.9375182876324445</v>
+        <v>1.652494870358111</v>
       </c>
       <c r="R8">
-        <v>8.437664588692</v>
+        <v>14.872453833223</v>
       </c>
       <c r="S8">
-        <v>0.0595234636370781</v>
+        <v>0.0865438248026919</v>
       </c>
       <c r="T8">
-        <v>0.05952346363707808</v>
+        <v>0.08654382480269188</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>26.986019</v>
       </c>
       <c r="I9">
-        <v>0.09892186351665599</v>
+        <v>0.1190425332769656</v>
       </c>
       <c r="J9">
-        <v>0.09892186351665597</v>
+        <v>0.1190425332769656</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,10 +992,10 @@
         <v>0.192158</v>
       </c>
       <c r="O9">
-        <v>0.3698034340347406</v>
+        <v>0.2534828531892131</v>
       </c>
       <c r="P9">
-        <v>0.3698034340347406</v>
+        <v>0.2534828531892131</v>
       </c>
       <c r="Q9">
         <v>0.5761754932224443</v>
@@ -1004,10 +1004,10 @@
         <v>5.185579439002</v>
       </c>
       <c r="S9">
-        <v>0.03658164482957531</v>
+        <v>0.03017524098591708</v>
       </c>
       <c r="T9">
-        <v>0.03658164482957529</v>
+        <v>0.03017524098591708</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>26.986019</v>
       </c>
       <c r="I10">
-        <v>0.09892186351665599</v>
+        <v>0.1190425332769656</v>
       </c>
       <c r="J10">
-        <v>0.09892186351665597</v>
+        <v>0.1190425332769656</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,10 +1054,10 @@
         <v>0.014796</v>
       </c>
       <c r="O10">
-        <v>0.02847454495768078</v>
+        <v>0.01951796071871896</v>
       </c>
       <c r="P10">
-        <v>0.02847454495768078</v>
+        <v>0.01951796071871896</v>
       </c>
       <c r="Q10">
         <v>0.044365015236</v>
@@ -1066,10 +1066,10 @@
         <v>0.399285137124</v>
       </c>
       <c r="S10">
-        <v>0.002816755050002583</v>
+        <v>0.002323467488356609</v>
       </c>
       <c r="T10">
-        <v>0.002816755050002582</v>
+        <v>0.002323467488356608</v>
       </c>
     </row>
   </sheetData>
